--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462571.5295875708</v>
+        <v>458927.7670564368</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17438448.17827362</v>
+        <v>17438448.17827363</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4347434.586723325</v>
+        <v>4347434.586723323</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7009028.290113454</v>
+        <v>7009028.290113453</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>179.4376746584948</v>
+        <v>61.99942403790277</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>121.5897430999033</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -870,22 +870,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>126.716395896553</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>58.67748875058538</v>
+        <v>133.5934181823258</v>
       </c>
     </row>
     <row r="6">
@@ -1059,16 +1059,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1113,16 +1113,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>180.2983300927847</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>377.14110196539</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>135.5633325890518</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1293,10 +1293,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>27.52433853077747</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1372,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>74.26569913813951</v>
       </c>
       <c r="U11" t="n">
-        <v>187.7303633741246</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>50.94722270604733</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>205.3931121155071</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>407.5304864711757</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>399.4708562660331</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.4425527922781</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.749202193249793</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.52813751418478</v>
+        <v>84.52813751418476</v>
       </c>
       <c r="T14" t="n">
         <v>215.1056853052062</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>120.1517725642737</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>72.31376850137836</v>
+        <v>72.31376850137835</v>
       </c>
       <c r="T15" t="n">
         <v>138.6823263548667</v>
@@ -1773,10 +1773,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0.7151009777373281</v>
       </c>
       <c r="G16" t="n">
         <v>164.2244161615414</v>
@@ -1785,7 +1785,7 @@
         <v>139.0688130566448</v>
       </c>
       <c r="I16" t="n">
-        <v>87.64445924590609</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>29.93240801518302</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>161.9858875967608</v>
       </c>
       <c r="T16" t="n">
-        <v>65.13649074446073</v>
+        <v>239.3251142220925</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3624230775804</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>211.251657217915</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>399.3995456585952</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>285.7122430338547</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T17" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.6996702193238</v>
@@ -1906,13 +1906,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>226.3586330860587</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2016,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.7844152484321</v>
+        <v>134.2845683605909</v>
       </c>
       <c r="I19" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S19" t="n">
         <v>161.4284329972273</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U19" t="n">
         <v>277.3606783057509</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>90.7624433669105</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>32.70512690214823</v>
       </c>
       <c r="G20" t="n">
         <v>399.3995456585952</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2149,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.52689820101347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>24.34798265987758</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>84.55574575909549</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I22" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2490,10 +2490,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>162.7787027976348</v>
       </c>
       <c r="H25" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>23.73911540193291</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T25" t="n">
         <v>239.1884404287796</v>
@@ -2557,7 +2557,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868333</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -2611,7 +2611,7 @@
         <v>214.7935231211468</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6996702193241</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2721,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>26.85680619338071</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.7844152484321</v>
       </c>
       <c r="I28" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>161.4284329972273</v>
       </c>
       <c r="T28" t="n">
-        <v>99.49072964696532</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.90314704719353</v>
+        <v>82.90314704719351</v>
       </c>
       <c r="T29" t="n">
         <v>214.7935231211468</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>140.0960483474814</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.1924286780001</v>
+        <v>23.99428754920267</v>
       </c>
       <c r="H31" t="n">
         <v>138.7844152484321</v>
       </c>
       <c r="I31" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>82.90314704719353</v>
       </c>
       <c r="T32" t="n">
-        <v>214.7935231211464</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U32" t="n">
         <v>255.6996702193238</v>
@@ -3195,7 +3195,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>134.7682573045927</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3207,7 +3207,7 @@
         <v>138.7844152484321</v>
       </c>
       <c r="I34" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>161.4284329972273</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U34" t="n">
         <v>277.3606783057509</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>94.23393113042478</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3322,7 +3322,7 @@
         <v>214.7935231211468</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6996702193241</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>73.36376852360625</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>24.09281051260773</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H37" t="n">
         <v>138.7844152484321</v>
       </c>
       <c r="I37" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.1884404287796</v>
@@ -3511,7 +3511,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>62.22773011787475</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3556,10 +3556,10 @@
         <v>82.90314704719353</v>
       </c>
       <c r="T38" t="n">
-        <v>111.003753004724</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3666,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>101.85790296065</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>101.85790296065</v>
       </c>
       <c r="H40" t="n">
         <v>138.7844152484321</v>
@@ -3745,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>28.49007970670476</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3805,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>17.03318394378521</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3906,7 +3906,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>161.2189673517138</v>
+        <v>15.17030956693255</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,10 +3915,10 @@
         <v>164.1924286780001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>161.4284329972273</v>
       </c>
       <c r="T43" t="n">
-        <v>239.1884404287796</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3606783057509</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>377.4453208394983</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>214.7935231211468</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6996702193238</v>
+        <v>233.7454454002266</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>56.17129232873948</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4149,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>75.84102227313734</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.1884404287796</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2224.911252462377</v>
+        <v>1715.206688290407</v>
       </c>
       <c r="C2" t="n">
-        <v>1798.010522475677</v>
+        <v>1288.305958303707</v>
       </c>
       <c r="D2" t="n">
-        <v>1374.717901660677</v>
+        <v>865.0133374887077</v>
       </c>
       <c r="E2" t="n">
-        <v>948.7409618085345</v>
+        <v>865.0133374887077</v>
       </c>
       <c r="F2" t="n">
-        <v>523.6167799979347</v>
+        <v>439.889155678108</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1556.689382596036</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596036</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q2" t="n">
         <v>2107.354917580474</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="Y2" t="n">
-        <v>2224.911252462377</v>
+        <v>1715.206688290407</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="L3" t="n">
-        <v>316.1957143288386</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="M3" t="n">
-        <v>866.8612493132769</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="N3" t="n">
-        <v>866.8612493132769</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="O3" t="n">
-        <v>1389.040378766978</v>
+        <v>1210.100240615159</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>740.454726702949</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>740.454726702949</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>577.1379538297197</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F4" t="n">
         <v>454.3200315065851</v>
@@ -4488,19 +4488,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4518,22 +4518,22 @@
         <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1879.741232177217</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1599.556783677521</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1317.84531628555</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="W4" t="n">
-        <v>1317.84531628555</v>
+        <v>1209.361391567402</v>
       </c>
       <c r="X4" t="n">
-        <v>1317.84531628555</v>
+        <v>966.7974950132069</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>740.454726702949</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.792697513689</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.891967526989</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="D5" t="n">
-        <v>895.5993467119897</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="E5" t="n">
-        <v>469.6224068598473</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,16 +4570,16 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N5" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
         <v>1100.603903091853</v>
@@ -4603,16 +4603,16 @@
         <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X5" t="n">
-        <v>2224.911252462377</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y5" t="n">
-        <v>2165.64106180522</v>
+        <v>924.3676424079061</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M6" t="n">
-        <v>44.49822504924753</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
-        <v>205.6899987133984</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
         <v>1307.021068682275</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.1145108219148</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C7" t="n">
-        <v>712.1419477008308</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D7" t="n">
-        <v>548.8251748276015</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E7" t="n">
-        <v>382.616968980455</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T7" t="n">
-        <v>1811.43685720741</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U7" t="n">
-        <v>1531.252408707715</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V7" t="n">
-        <v>1349.132883361468</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W7" t="n">
-        <v>1074.28047953398</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X7" t="n">
-        <v>1074.28047953398</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y7" t="n">
-        <v>1074.28047953398</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>883.6383251666246</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C8" t="n">
-        <v>502.687717120776</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D8" t="n">
-        <v>79.39509630577632</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E8" t="n">
-        <v>79.39509630577632</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F8" t="n">
-        <v>79.39509630577632</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
         <v>1100.603903091853</v>
@@ -4843,13 +4843,13 @@
         <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>2120.543958335517</v>
+        <v>1983.611299154657</v>
       </c>
       <c r="X8" t="n">
-        <v>1708.823959503264</v>
+        <v>1571.891300322404</v>
       </c>
       <c r="Y8" t="n">
-        <v>1303.486689458155</v>
+        <v>1166.554030277294</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>756.3555336978366</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>1307.021068682275</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N9" t="n">
-        <v>1307.021068682275</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>720.4238054717475</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>1136.932542494071</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>910.5897741838132</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.49822504924753</v>
+        <v>1229.288386629041</v>
       </c>
       <c r="C11" t="n">
-        <v>44.49822504924753</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="D11" t="n">
-        <v>44.49822504924753</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="E11" t="n">
-        <v>44.49822504924753</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I11" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L11" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M11" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N11" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O11" t="n">
-        <v>2224.911252462377</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q11" t="n">
         <v>2224.911252462377</v>
@@ -5068,25 +5068,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462377</v>
+        <v>2045.528100620224</v>
       </c>
       <c r="U11" t="n">
-        <v>2035.284622791544</v>
+        <v>2045.528100620224</v>
       </c>
       <c r="V11" t="n">
-        <v>1677.795207917793</v>
+        <v>2045.528100620224</v>
       </c>
       <c r="W11" t="n">
-        <v>1281.40385821814</v>
+        <v>1649.136750920571</v>
       </c>
       <c r="X11" t="n">
-        <v>869.6838593858872</v>
+        <v>1649.136750920571</v>
       </c>
       <c r="Y11" t="n">
-        <v>464.3465893407776</v>
+        <v>1649.136750920571</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K12" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L12" t="n">
-        <v>44.49822504924753</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M12" t="n">
-        <v>201.1892506764427</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N12" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O12" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P12" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q12" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>505.7818726238046</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C13" t="n">
-        <v>505.7818726238046</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D13" t="n">
-        <v>505.7818726238046</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E13" t="n">
-        <v>505.7818726238046</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
         <v>44.49822504924753</v>
@@ -5232,19 +5232,19 @@
         <v>1811.436857207411</v>
       </c>
       <c r="U13" t="n">
-        <v>1531.252408707716</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V13" t="n">
-        <v>1249.540941315744</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W13" t="n">
-        <v>974.6885374882575</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X13" t="n">
-        <v>732.1246409340625</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y13" t="n">
-        <v>505.7818726238046</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>51.90885049422272</v>
+        <v>747.5276497382238</v>
       </c>
       <c r="C14" t="n">
-        <v>51.90885049422272</v>
+        <v>747.5276497382238</v>
       </c>
       <c r="D14" t="n">
-        <v>51.90885049422272</v>
+        <v>747.5276497382238</v>
       </c>
       <c r="E14" t="n">
-        <v>51.90885049422272</v>
+        <v>747.5276497382238</v>
       </c>
       <c r="F14" t="n">
-        <v>51.90885049422272</v>
+        <v>747.5276497382238</v>
       </c>
       <c r="G14" t="n">
-        <v>51.90885049422272</v>
+        <v>344.0217343179883</v>
       </c>
       <c r="H14" t="n">
-        <v>51.90885049422272</v>
+        <v>54.68582240659625</v>
       </c>
       <c r="I14" t="n">
-        <v>51.90885049422272</v>
+        <v>51.90885049422273</v>
       </c>
       <c r="J14" t="n">
-        <v>483.817443723996</v>
+        <v>483.8174437239961</v>
       </c>
       <c r="K14" t="n">
-        <v>552.2809199192948</v>
+        <v>833.3375353931302</v>
       </c>
       <c r="L14" t="n">
-        <v>643.2124523961623</v>
+        <v>924.2690678699979</v>
       </c>
       <c r="M14" t="n">
-        <v>1285.584477262169</v>
+        <v>1030.594201965754</v>
       </c>
       <c r="N14" t="n">
-        <v>1631.23843911498</v>
+        <v>1139.389531752245</v>
       </c>
       <c r="O14" t="n">
-        <v>1731.803804007316</v>
+        <v>1239.954896644581</v>
       </c>
       <c r="P14" t="n">
-        <v>2374.175828873322</v>
+        <v>1882.326921510587</v>
       </c>
       <c r="Q14" t="n">
-        <v>2426.592490074445</v>
+        <v>2426.592490074446</v>
       </c>
       <c r="R14" t="n">
         <v>2595.442524711136</v>
@@ -5311,7 +5311,7 @@
         <v>2292.782097620842</v>
       </c>
       <c r="U14" t="n">
-        <v>2034.493839976479</v>
+        <v>2034.49383997648</v>
       </c>
       <c r="V14" t="n">
         <v>1677.004425102729</v>
@@ -5320,10 +5320,10 @@
         <v>1280.613075403076</v>
       </c>
       <c r="X14" t="n">
-        <v>868.893076570823</v>
+        <v>868.8930765708235</v>
       </c>
       <c r="Y14" t="n">
-        <v>463.5558065257134</v>
+        <v>747.5276497382238</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>288.2335447688215</v>
       </c>
       <c r="F15" t="n">
-        <v>194.5877144517256</v>
+        <v>194.5877144517257</v>
       </c>
       <c r="G15" t="n">
         <v>100.979715608535</v>
       </c>
       <c r="H15" t="n">
-        <v>51.90885049422272</v>
+        <v>51.90885049422273</v>
       </c>
       <c r="I15" t="n">
-        <v>51.90885049422272</v>
+        <v>74.39795465378428</v>
       </c>
       <c r="J15" t="n">
-        <v>364.8840030424218</v>
+        <v>387.3731072019833</v>
       </c>
       <c r="K15" t="n">
-        <v>413.2588626829465</v>
+        <v>820.8822624004371</v>
       </c>
       <c r="L15" t="n">
-        <v>485.8322442358145</v>
+        <v>893.4556439533052</v>
       </c>
       <c r="M15" t="n">
-        <v>573.6674485207402</v>
+        <v>981.290848238231</v>
       </c>
       <c r="N15" t="n">
-        <v>666.1687941000894</v>
+        <v>1073.79219381758</v>
       </c>
       <c r="O15" t="n">
-        <v>1260.257636983079</v>
+        <v>1154.802136698173</v>
       </c>
       <c r="P15" t="n">
-        <v>1322.133634842945</v>
+        <v>1216.678134558039</v>
       </c>
       <c r="Q15" t="n">
-        <v>1842.049276125648</v>
+        <v>1736.593775840742</v>
       </c>
       <c r="R15" t="n">
         <v>1845.739338245691</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.154720565256</v>
+        <v>694.2773078985599</v>
       </c>
       <c r="C16" t="n">
-        <v>948.1821574441718</v>
+        <v>522.3047447774759</v>
       </c>
       <c r="D16" t="n">
-        <v>784.8653845709425</v>
+        <v>358.9879719042466</v>
       </c>
       <c r="E16" t="n">
-        <v>618.6571787237961</v>
+        <v>358.9879719042466</v>
       </c>
       <c r="F16" t="n">
-        <v>446.7954044983564</v>
+        <v>358.2656476843099</v>
       </c>
       <c r="G16" t="n">
-        <v>280.9121558503348</v>
+        <v>192.3823990362882</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4386073082693</v>
+        <v>51.90885049422273</v>
       </c>
       <c r="I16" t="n">
-        <v>51.90885049422272</v>
+        <v>51.90885049422273</v>
       </c>
       <c r="J16" t="n">
         <v>135.2964581332641</v>
       </c>
       <c r="K16" t="n">
-        <v>404.3796014404526</v>
+        <v>404.3796014404527</v>
       </c>
       <c r="L16" t="n">
-        <v>813.5253652642552</v>
+        <v>813.5253652642555</v>
       </c>
       <c r="M16" t="n">
         <v>1262.127843525085</v>
       </c>
       <c r="N16" t="n">
-        <v>1695.670797295647</v>
+        <v>1695.670797295648</v>
       </c>
       <c r="O16" t="n">
         <v>2102.87150567743</v>
       </c>
       <c r="P16" t="n">
-        <v>2437.77110352393</v>
+        <v>2437.771103523931</v>
       </c>
       <c r="Q16" t="n">
         <v>2595.442524711136</v>
       </c>
       <c r="R16" t="n">
-        <v>2565.207769140244</v>
+        <v>2595.442524711136</v>
       </c>
       <c r="S16" t="n">
-        <v>2401.585660456647</v>
+        <v>2431.82041602754</v>
       </c>
       <c r="T16" t="n">
-        <v>2335.791225361232</v>
+        <v>2190.077876409264</v>
       </c>
       <c r="U16" t="n">
-        <v>2335.791225361232</v>
+        <v>1909.913812694537</v>
       </c>
       <c r="V16" t="n">
-        <v>2054.079757969261</v>
+        <v>1628.202345302565</v>
       </c>
       <c r="W16" t="n">
-        <v>1779.227354141774</v>
+        <v>1353.349941475078</v>
       </c>
       <c r="X16" t="n">
-        <v>1536.663457587579</v>
+        <v>1110.786044920884</v>
       </c>
       <c r="Y16" t="n">
-        <v>1310.320689277321</v>
+        <v>884.4432766106256</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1169.705838334393</v>
+        <v>691.0592408853674</v>
       </c>
       <c r="C17" t="n">
-        <v>1169.705838334393</v>
+        <v>477.6737285440391</v>
       </c>
       <c r="D17" t="n">
-        <v>1169.705838334393</v>
+        <v>477.6737285440391</v>
       </c>
       <c r="E17" t="n">
-        <v>1169.705838334393</v>
+        <v>477.6737285440391</v>
       </c>
       <c r="F17" t="n">
-        <v>744.5816565237928</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="G17" t="n">
-        <v>341.1477720201613</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="H17" t="n">
         <v>52.54954673343935</v>
@@ -5518,19 +5518,19 @@
         <v>490.4500146445652</v>
       </c>
       <c r="K17" t="n">
-        <v>567.8937577539346</v>
+        <v>797.3564330456253</v>
       </c>
       <c r="L17" t="n">
-        <v>669.9661054272267</v>
+        <v>899.4287807189174</v>
       </c>
       <c r="M17" t="n">
-        <v>1320.266746253539</v>
+        <v>1018.150218325972</v>
       </c>
       <c r="N17" t="n">
-        <v>1441.658964702077</v>
+        <v>1139.54243677451</v>
       </c>
       <c r="O17" t="n">
-        <v>1554.119214352276</v>
+        <v>1252.002686424709</v>
       </c>
       <c r="P17" t="n">
         <v>1902.303327251021</v>
@@ -5542,25 +5542,25 @@
         <v>2627.477336671967</v>
       </c>
       <c r="S17" t="n">
-        <v>2627.477336671967</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="T17" t="n">
-        <v>2410.514182004142</v>
+        <v>2543.736784099045</v>
       </c>
       <c r="U17" t="n">
-        <v>2152.231686833108</v>
+        <v>2285.454288928011</v>
       </c>
       <c r="V17" t="n">
-        <v>1794.742271959358</v>
+        <v>1927.96487405426</v>
       </c>
       <c r="W17" t="n">
-        <v>1398.350922259704</v>
+        <v>1927.96487405426</v>
       </c>
       <c r="X17" t="n">
-        <v>1169.705838334393</v>
+        <v>1516.244875222007</v>
       </c>
       <c r="Y17" t="n">
-        <v>1169.705838334393</v>
+        <v>1110.907605176898</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>52.54954673343935</v>
       </c>
       <c r="I18" t="n">
-        <v>52.88186258107763</v>
+        <v>76.33916842548948</v>
       </c>
       <c r="J18" t="n">
-        <v>77.32324217144819</v>
+        <v>392.8830404854511</v>
       </c>
       <c r="K18" t="n">
-        <v>131.797611874856</v>
+        <v>769.2749085720043</v>
       </c>
       <c r="L18" t="n">
-        <v>212.5725374335644</v>
+        <v>850.0498341307126</v>
       </c>
       <c r="M18" t="n">
-        <v>862.8731782598763</v>
+        <v>947.4558534286148</v>
       </c>
       <c r="N18" t="n">
-        <v>965.1986498467465</v>
+        <v>1049.781325015485</v>
       </c>
       <c r="O18" t="n">
-        <v>1615.499290673059</v>
+        <v>1139.778423894155</v>
       </c>
       <c r="P18" t="n">
-        <v>1695.532451533015</v>
+        <v>1208.867406764147</v>
       </c>
       <c r="Q18" t="n">
         <v>1733.604737507429</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1119.504168157571</v>
+        <v>698.2330680691205</v>
       </c>
       <c r="C19" t="n">
-        <v>947.5316050364868</v>
+        <v>526.2605049480364</v>
       </c>
       <c r="D19" t="n">
-        <v>784.2148321632575</v>
+        <v>526.2605049480364</v>
       </c>
       <c r="E19" t="n">
-        <v>618.006626316111</v>
+        <v>360.05229910089</v>
       </c>
       <c r="F19" t="n">
-        <v>446.1448520906715</v>
+        <v>188.1905248754504</v>
       </c>
       <c r="G19" t="n">
-        <v>280.2939140320855</v>
+        <v>188.1905248754504</v>
       </c>
       <c r="H19" t="n">
-        <v>140.1076360033662</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="I19" t="n">
         <v>52.54954673343935</v>
@@ -5697,28 +5697,28 @@
         <v>2627.477336671968</v>
       </c>
       <c r="R19" t="n">
-        <v>2627.477336671968</v>
+        <v>2598.695382695156</v>
       </c>
       <c r="S19" t="n">
-        <v>2464.418313442445</v>
+        <v>2435.636359465633</v>
       </c>
       <c r="T19" t="n">
-        <v>2464.418313442445</v>
+        <v>2194.031874184037</v>
       </c>
       <c r="U19" t="n">
-        <v>2184.256012123505</v>
+        <v>1913.869572865097</v>
       </c>
       <c r="V19" t="n">
-        <v>1902.544544731534</v>
+        <v>1632.158105473126</v>
       </c>
       <c r="W19" t="n">
-        <v>1627.692140904046</v>
+        <v>1357.305701645639</v>
       </c>
       <c r="X19" t="n">
-        <v>1536.012905179894</v>
+        <v>1114.741805091444</v>
       </c>
       <c r="Y19" t="n">
-        <v>1309.670136869637</v>
+        <v>888.3990367811862</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1733.985282886513</v>
+        <v>1203.594078095277</v>
       </c>
       <c r="C20" t="n">
-        <v>1307.084552899813</v>
+        <v>1203.594078095277</v>
       </c>
       <c r="D20" t="n">
-        <v>1307.084552899813</v>
+        <v>1203.594078095277</v>
       </c>
       <c r="E20" t="n">
-        <v>881.1076130476706</v>
+        <v>777.6171382431345</v>
       </c>
       <c r="F20" t="n">
-        <v>455.9834312370709</v>
+        <v>744.5816565237928</v>
       </c>
       <c r="G20" t="n">
-        <v>52.54954673343935</v>
+        <v>341.1477720201613</v>
       </c>
       <c r="H20" t="n">
         <v>52.54954673343935</v>
@@ -5785,19 +5785,19 @@
         <v>2627.477336671967</v>
       </c>
       <c r="U20" t="n">
-        <v>2627.477336671967</v>
+        <v>2369.194841500933</v>
       </c>
       <c r="V20" t="n">
-        <v>2627.477336671967</v>
+        <v>2011.705426627183</v>
       </c>
       <c r="W20" t="n">
-        <v>2231.085986972314</v>
+        <v>1615.31407692753</v>
       </c>
       <c r="X20" t="n">
-        <v>1819.365988140062</v>
+        <v>1203.594078095277</v>
       </c>
       <c r="Y20" t="n">
-        <v>1733.985282886513</v>
+        <v>1203.594078095277</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>52.54954673343935</v>
       </c>
       <c r="I21" t="n">
-        <v>52.88186258107763</v>
+        <v>76.33916842548948</v>
       </c>
       <c r="J21" t="n">
-        <v>77.32324217144819</v>
+        <v>100.78054801586</v>
       </c>
       <c r="K21" t="n">
-        <v>131.797611874856</v>
+        <v>751.081188842172</v>
       </c>
       <c r="L21" t="n">
-        <v>782.0982527011679</v>
+        <v>831.8561144008804</v>
       </c>
       <c r="M21" t="n">
-        <v>1432.39889352748</v>
+        <v>929.2621336987826</v>
       </c>
       <c r="N21" t="n">
-        <v>1534.72436511435</v>
+        <v>1031.587605285653</v>
       </c>
       <c r="O21" t="n">
-        <v>1624.72146399302</v>
+        <v>1121.584704164323</v>
       </c>
       <c r="P21" t="n">
-        <v>1693.810446863012</v>
+        <v>1208.867406764147</v>
       </c>
       <c r="Q21" t="n">
-        <v>1839.060237792334</v>
+        <v>1733.604737507429</v>
       </c>
       <c r="R21" t="n">
         <v>1845.095538917461</v>
@@ -5892,19 +5892,19 @@
         <v>555.0424589248485</v>
       </c>
       <c r="D22" t="n">
-        <v>391.7256860516192</v>
+        <v>530.4485370461842</v>
       </c>
       <c r="E22" t="n">
-        <v>225.5174802044727</v>
+        <v>530.4485370461842</v>
       </c>
       <c r="F22" t="n">
-        <v>140.1076360033662</v>
+        <v>358.5867628207446</v>
       </c>
       <c r="G22" t="n">
-        <v>140.1076360033662</v>
+        <v>192.7358247621587</v>
       </c>
       <c r="H22" t="n">
-        <v>140.1076360033662</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="I22" t="n">
         <v>52.54954673343935</v>
@@ -5986,31 +5986,31 @@
         <v>100.8795751512016</v>
       </c>
       <c r="I23" t="n">
-        <v>100.8795751512016</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J23" t="n">
-        <v>502.4677816981265</v>
+        <v>538.7800430623273</v>
       </c>
       <c r="K23" t="n">
-        <v>1330.826787569856</v>
+        <v>1367.139048934057</v>
       </c>
       <c r="L23" t="n">
-        <v>2400.453104870722</v>
+        <v>2248.214446592971</v>
       </c>
       <c r="M23" t="n">
-        <v>2519.174542477776</v>
+        <v>2366.935884200025</v>
       </c>
       <c r="N23" t="n">
-        <v>2640.566760926315</v>
+        <v>2488.328102648564</v>
       </c>
       <c r="O23" t="n">
-        <v>3635.18871048979</v>
+        <v>3482.950052212039</v>
       </c>
       <c r="P23" t="n">
-        <v>4471.043406416879</v>
+        <v>4318.804748139129</v>
       </c>
       <c r="Q23" t="n">
-        <v>5022.932710906109</v>
+        <v>4870.694052628358</v>
       </c>
       <c r="R23" t="n">
         <v>5043.978757560075</v>
@@ -6065,31 +6065,31 @@
         <v>100.8795751512015</v>
       </c>
       <c r="I24" t="n">
-        <v>101.2118909988398</v>
+        <v>124.6691968432516</v>
       </c>
       <c r="J24" t="n">
-        <v>417.7557630588014</v>
+        <v>441.2130689032133</v>
       </c>
       <c r="K24" t="n">
-        <v>1084.890300825549</v>
+        <v>495.6874386066211</v>
       </c>
       <c r="L24" t="n">
-        <v>1165.665226384257</v>
+        <v>576.4623641653295</v>
       </c>
       <c r="M24" t="n">
-        <v>1263.071245682159</v>
+        <v>673.8683834632317</v>
       </c>
       <c r="N24" t="n">
-        <v>1365.39671726903</v>
+        <v>776.1938550501019</v>
       </c>
       <c r="O24" t="n">
-        <v>1455.3938161477</v>
+        <v>1188.108452311917</v>
       </c>
       <c r="P24" t="n">
-        <v>1524.482799017691</v>
+        <v>1257.197435181909</v>
       </c>
       <c r="Q24" t="n">
-        <v>1887.390266210096</v>
+        <v>1781.934765925191</v>
       </c>
       <c r="R24" t="n">
         <v>1893.425567335223</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>914.4251692468201</v>
+        <v>775.3450504636946</v>
       </c>
       <c r="C25" t="n">
-        <v>742.4526061257361</v>
+        <v>603.3724873426106</v>
       </c>
       <c r="D25" t="n">
-        <v>579.1358332525068</v>
+        <v>603.3724873426106</v>
       </c>
       <c r="E25" t="n">
-        <v>412.9276274053604</v>
+        <v>437.1642814954641</v>
       </c>
       <c r="F25" t="n">
-        <v>241.0658531799208</v>
+        <v>265.3025072700245</v>
       </c>
       <c r="G25" t="n">
-        <v>241.0658531799208</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="H25" t="n">
         <v>100.8795751512015</v>
@@ -6174,25 +6174,25 @@
         <v>2675.80736508973</v>
       </c>
       <c r="S25" t="n">
-        <v>2651.828460643333</v>
+        <v>2512.748341860207</v>
       </c>
       <c r="T25" t="n">
-        <v>2410.223975361737</v>
+        <v>2271.143856578612</v>
       </c>
       <c r="U25" t="n">
-        <v>2130.061674042797</v>
+        <v>1990.981555259671</v>
       </c>
       <c r="V25" t="n">
-        <v>1848.350206650826</v>
+        <v>1709.2700878677</v>
       </c>
       <c r="W25" t="n">
-        <v>1573.497802823339</v>
+        <v>1434.417684040213</v>
       </c>
       <c r="X25" t="n">
-        <v>1330.933906269144</v>
+        <v>1191.853787486018</v>
       </c>
       <c r="Y25" t="n">
-        <v>1104.591137958886</v>
+        <v>965.5110191757603</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>100.8795751512015</v>
       </c>
       <c r="J26" t="n">
-        <v>147.0508243547011</v>
+        <v>538.7800430623273</v>
       </c>
       <c r="K26" t="n">
-        <v>224.4945674640705</v>
+        <v>1367.139048934057</v>
       </c>
       <c r="L26" t="n">
-        <v>1294.120884764936</v>
+        <v>2436.765366234923</v>
       </c>
       <c r="M26" t="n">
-        <v>2454.185374061486</v>
+        <v>3596.829855531472</v>
       </c>
       <c r="N26" t="n">
-        <v>3588.735477602827</v>
+        <v>3718.222073980011</v>
       </c>
       <c r="O26" t="n">
-        <v>4583.357427166302</v>
+        <v>3830.68232363021</v>
       </c>
       <c r="P26" t="n">
-        <v>4962.892313779615</v>
+        <v>4666.5370195573</v>
       </c>
       <c r="Q26" t="n">
-        <v>5022.932710906109</v>
+        <v>4870.694052628358</v>
       </c>
       <c r="R26" t="n">
         <v>5043.978757560075</v>
@@ -6265,7 +6265,7 @@
         <v>4127.503140274543</v>
       </c>
       <c r="W26" t="n">
-        <v>3731.111790574889</v>
+        <v>3731.11179057489</v>
       </c>
       <c r="X26" t="n">
         <v>3319.391791742637</v>
@@ -6305,25 +6305,25 @@
         <v>101.2118909988398</v>
       </c>
       <c r="J27" t="n">
-        <v>125.6532705892103</v>
+        <v>417.7557630588014</v>
       </c>
       <c r="K27" t="n">
-        <v>180.1276402926181</v>
+        <v>923.060437274672</v>
       </c>
       <c r="L27" t="n">
-        <v>260.9025658513265</v>
+        <v>1003.83536283338</v>
       </c>
       <c r="M27" t="n">
-        <v>358.3085851492286</v>
+        <v>1101.241382131283</v>
       </c>
       <c r="N27" t="n">
-        <v>1571.078601140375</v>
+        <v>1203.566853718153</v>
       </c>
       <c r="O27" t="n">
-        <v>1780.228997365691</v>
+        <v>1293.563952596823</v>
       </c>
       <c r="P27" t="n">
-        <v>1849.317980235683</v>
+        <v>1362.652935466815</v>
       </c>
       <c r="Q27" t="n">
         <v>1887.390266210096</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1167.834196575333</v>
+        <v>775.3450504636946</v>
       </c>
       <c r="C28" t="n">
-        <v>995.8616334542489</v>
+        <v>603.3724873426106</v>
       </c>
       <c r="D28" t="n">
-        <v>832.5448605810196</v>
+        <v>440.0557144693813</v>
       </c>
       <c r="E28" t="n">
-        <v>666.3366547338732</v>
+        <v>412.9276274053604</v>
       </c>
       <c r="F28" t="n">
-        <v>494.4748805084336</v>
+        <v>241.0658531799208</v>
       </c>
       <c r="G28" t="n">
-        <v>328.6239424498476</v>
+        <v>241.0658531799208</v>
       </c>
       <c r="H28" t="n">
-        <v>188.4376644211283</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I28" t="n">
         <v>100.8795751512015</v>
@@ -6408,28 +6408,28 @@
         <v>2675.80736508973</v>
       </c>
       <c r="R28" t="n">
-        <v>2647.025411112918</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S28" t="n">
-        <v>2483.966387883395</v>
+        <v>2512.748341860207</v>
       </c>
       <c r="T28" t="n">
-        <v>2383.470701371309</v>
+        <v>2271.143856578612</v>
       </c>
       <c r="U28" t="n">
-        <v>2383.470701371309</v>
+        <v>1990.981555259671</v>
       </c>
       <c r="V28" t="n">
-        <v>2101.759233979338</v>
+        <v>1709.2700878677</v>
       </c>
       <c r="W28" t="n">
-        <v>1826.906830151851</v>
+        <v>1434.417684040213</v>
       </c>
       <c r="X28" t="n">
-        <v>1584.342933597657</v>
+        <v>1191.853787486018</v>
       </c>
       <c r="Y28" t="n">
-        <v>1358.000165287399</v>
+        <v>965.5110191757603</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1218.035866752155</v>
       </c>
       <c r="F29" t="n">
-        <v>792.9116849415545</v>
+        <v>792.911684941555</v>
       </c>
       <c r="G29" t="n">
-        <v>389.4778004379232</v>
+        <v>389.4778004379234</v>
       </c>
       <c r="H29" t="n">
         <v>100.8795751512015</v>
@@ -6463,28 +6463,28 @@
         <v>100.8795751512015</v>
       </c>
       <c r="J29" t="n">
-        <v>147.0508243547011</v>
+        <v>538.7800430623273</v>
       </c>
       <c r="K29" t="n">
-        <v>224.4945674640705</v>
+        <v>1367.139048934057</v>
       </c>
       <c r="L29" t="n">
-        <v>1294.120884764936</v>
+        <v>2248.214446592971</v>
       </c>
       <c r="M29" t="n">
-        <v>2454.185374061486</v>
+        <v>2366.935884200025</v>
       </c>
       <c r="N29" t="n">
-        <v>3588.735477602827</v>
+        <v>2488.328102648564</v>
       </c>
       <c r="O29" t="n">
-        <v>4583.357427166302</v>
+        <v>3482.950052212039</v>
       </c>
       <c r="P29" t="n">
-        <v>4673.733235743335</v>
+        <v>4318.804748139129</v>
       </c>
       <c r="Q29" t="n">
-        <v>5022.932710906109</v>
+        <v>4870.694052628358</v>
       </c>
       <c r="R29" t="n">
         <v>5043.978757560075</v>
@@ -6496,7 +6496,7 @@
         <v>4743.275050319327</v>
       </c>
       <c r="U29" t="n">
-        <v>4484.992555148294</v>
+        <v>4484.992555148293</v>
       </c>
       <c r="V29" t="n">
         <v>4127.503140274543</v>
@@ -6545,22 +6545,22 @@
         <v>125.6532705892103</v>
       </c>
       <c r="K30" t="n">
-        <v>671.9746322122614</v>
+        <v>180.1276402926181</v>
       </c>
       <c r="L30" t="n">
-        <v>752.7495577709699</v>
+        <v>260.9025658513265</v>
       </c>
       <c r="M30" t="n">
-        <v>850.155577068872</v>
+        <v>358.3085851492286</v>
       </c>
       <c r="N30" t="n">
-        <v>952.4810486557423</v>
+        <v>460.6340567360988</v>
       </c>
       <c r="O30" t="n">
-        <v>1042.478147534413</v>
+        <v>1463.052604451241</v>
       </c>
       <c r="P30" t="n">
-        <v>1849.317980235683</v>
+        <v>1532.141587321232</v>
       </c>
       <c r="Q30" t="n">
         <v>1887.390266210096</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>965.5110191757603</v>
+        <v>775.3450504636946</v>
       </c>
       <c r="C31" t="n">
-        <v>965.5110191757603</v>
+        <v>603.3724873426106</v>
       </c>
       <c r="D31" t="n">
-        <v>802.194246302531</v>
+        <v>603.3724873426106</v>
       </c>
       <c r="E31" t="n">
-        <v>635.9860404553846</v>
+        <v>437.1642814954641</v>
       </c>
       <c r="F31" t="n">
-        <v>494.4748805084336</v>
+        <v>265.3025072700245</v>
       </c>
       <c r="G31" t="n">
-        <v>328.6239424498476</v>
+        <v>241.0658531799208</v>
       </c>
       <c r="H31" t="n">
-        <v>188.4376644211283</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I31" t="n">
         <v>100.8795751512015</v>
@@ -6688,40 +6688,40 @@
         <v>1218.035866752155</v>
       </c>
       <c r="F32" t="n">
-        <v>792.911684941555</v>
+        <v>792.9116849415545</v>
       </c>
       <c r="G32" t="n">
-        <v>389.4778004379234</v>
+        <v>389.4778004379232</v>
       </c>
       <c r="H32" t="n">
-        <v>100.8795751512015</v>
+        <v>100.8795751512016</v>
       </c>
       <c r="I32" t="n">
-        <v>100.8795751512015</v>
+        <v>100.8795751512016</v>
       </c>
       <c r="J32" t="n">
-        <v>147.0508243547011</v>
+        <v>538.7800430623274</v>
       </c>
       <c r="K32" t="n">
-        <v>224.4945674640705</v>
+        <v>1367.139048934057</v>
       </c>
       <c r="L32" t="n">
-        <v>1294.120884764936</v>
+        <v>2436.765366234923</v>
       </c>
       <c r="M32" t="n">
-        <v>2454.185374061486</v>
+        <v>2555.486803841977</v>
       </c>
       <c r="N32" t="n">
-        <v>3588.735477602827</v>
+        <v>2676.879022290515</v>
       </c>
       <c r="O32" t="n">
-        <v>3701.195727253026</v>
+        <v>3635.18871048979</v>
       </c>
       <c r="P32" t="n">
-        <v>4318.804748139129</v>
+        <v>4471.043406416879</v>
       </c>
       <c r="Q32" t="n">
-        <v>4870.694052628358</v>
+        <v>5022.932710906109</v>
       </c>
       <c r="R32" t="n">
         <v>5043.978757560075</v>
@@ -6733,7 +6733,7 @@
         <v>4743.275050319327</v>
       </c>
       <c r="U32" t="n">
-        <v>4484.992555148293</v>
+        <v>4484.992555148294</v>
       </c>
       <c r="V32" t="n">
         <v>4127.503140274543</v>
@@ -6776,28 +6776,28 @@
         <v>100.8795751512015</v>
       </c>
       <c r="I33" t="n">
-        <v>101.2118909988398</v>
+        <v>124.6691968432516</v>
       </c>
       <c r="J33" t="n">
-        <v>125.6532705892103</v>
+        <v>441.2130689032133</v>
       </c>
       <c r="K33" t="n">
-        <v>792.7878083559578</v>
+        <v>497.3040332070682</v>
       </c>
       <c r="L33" t="n">
-        <v>873.5627339146663</v>
+        <v>578.0789587657766</v>
       </c>
       <c r="M33" t="n">
-        <v>970.9687532125685</v>
+        <v>675.4849780636788</v>
       </c>
       <c r="N33" t="n">
-        <v>1073.294224799439</v>
+        <v>777.810449650549</v>
       </c>
       <c r="O33" t="n">
-        <v>1163.291323678109</v>
+        <v>1780.228997365691</v>
       </c>
       <c r="P33" t="n">
-        <v>1362.652935466815</v>
+        <v>1849.317980235683</v>
       </c>
       <c r="Q33" t="n">
         <v>1887.390266210096</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3536.005589045678</v>
+        <v>1050.197454291182</v>
       </c>
       <c r="C34" t="n">
-        <v>3364.033025924594</v>
+        <v>878.2248911700976</v>
       </c>
       <c r="D34" t="n">
-        <v>3200.716253051365</v>
+        <v>714.9081182968683</v>
       </c>
       <c r="E34" t="n">
-        <v>3034.508047204219</v>
+        <v>578.7785654639464</v>
       </c>
       <c r="F34" t="n">
-        <v>2862.646272978779</v>
+        <v>406.9167912385068</v>
       </c>
       <c r="G34" t="n">
-        <v>2696.795334920193</v>
+        <v>241.0658531799208</v>
       </c>
       <c r="H34" t="n">
-        <v>2556.609056891474</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I34" t="n">
-        <v>2469.050967621547</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J34" t="n">
-        <v>2554.677475196095</v>
+        <v>186.5060827257495</v>
       </c>
       <c r="K34" t="n">
-        <v>2827.439818860205</v>
+        <v>459.2684263898591</v>
       </c>
       <c r="L34" t="n">
-        <v>3241.293692436518</v>
+        <v>873.1222999661725</v>
       </c>
       <c r="M34" t="n">
-        <v>3694.860212305673</v>
+        <v>1326.688819835327</v>
       </c>
       <c r="N34" t="n">
-        <v>4133.249173870292</v>
+        <v>1765.077781399947</v>
       </c>
       <c r="O34" t="n">
-        <v>4544.925954798977</v>
+        <v>2176.754562328631</v>
       </c>
       <c r="P34" t="n">
-        <v>4883.655605974779</v>
+        <v>2515.484213504434</v>
       </c>
       <c r="Q34" t="n">
-        <v>5043.978757560075</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="R34" t="n">
-        <v>5015.196803583262</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S34" t="n">
-        <v>4852.13778035374</v>
+        <v>2512.748341860207</v>
       </c>
       <c r="T34" t="n">
-        <v>4852.13778035374</v>
+        <v>2271.143856578612</v>
       </c>
       <c r="U34" t="n">
-        <v>4571.9754790348</v>
+        <v>1990.981555259671</v>
       </c>
       <c r="V34" t="n">
-        <v>4290.264011642828</v>
+        <v>1709.2700878677</v>
       </c>
       <c r="W34" t="n">
-        <v>4195.078222622197</v>
+        <v>1709.2700878677</v>
       </c>
       <c r="X34" t="n">
-        <v>3952.514326068002</v>
+        <v>1466.706191313505</v>
       </c>
       <c r="Y34" t="n">
-        <v>3726.171557757744</v>
+        <v>1240.363423003247</v>
       </c>
     </row>
     <row r="35">
@@ -6925,37 +6925,37 @@
         <v>1218.035866752155</v>
       </c>
       <c r="F35" t="n">
-        <v>792.911684941555</v>
+        <v>792.9116849415545</v>
       </c>
       <c r="G35" t="n">
-        <v>389.4778004379234</v>
+        <v>389.4778004379232</v>
       </c>
       <c r="H35" t="n">
-        <v>100.8795751512015</v>
+        <v>100.8795751512016</v>
       </c>
       <c r="I35" t="n">
         <v>100.8795751512015</v>
       </c>
       <c r="J35" t="n">
-        <v>147.0508243547011</v>
+        <v>538.7800430623273</v>
       </c>
       <c r="K35" t="n">
-        <v>224.4945674640705</v>
+        <v>1367.139048934057</v>
       </c>
       <c r="L35" t="n">
-        <v>1294.120884764936</v>
+        <v>2436.765366234923</v>
       </c>
       <c r="M35" t="n">
-        <v>2454.185374061486</v>
+        <v>2555.486803841977</v>
       </c>
       <c r="N35" t="n">
-        <v>3588.735477602827</v>
+        <v>2676.879022290515</v>
       </c>
       <c r="O35" t="n">
-        <v>4127.037617852525</v>
+        <v>3671.50097185399</v>
       </c>
       <c r="P35" t="n">
-        <v>4962.892313779615</v>
+        <v>4507.35566778108</v>
       </c>
       <c r="Q35" t="n">
         <v>5022.932710906109</v>
@@ -6970,7 +6970,7 @@
         <v>4743.275050319327</v>
       </c>
       <c r="U35" t="n">
-        <v>4484.992555148293</v>
+        <v>4484.992555148294</v>
       </c>
       <c r="V35" t="n">
         <v>4127.503140274543</v>
@@ -7025,16 +7025,16 @@
         <v>260.9025658513265</v>
       </c>
       <c r="M36" t="n">
-        <v>477.4618824958745</v>
+        <v>358.3085851492286</v>
       </c>
       <c r="N36" t="n">
-        <v>1690.231898487021</v>
+        <v>1571.078601140375</v>
       </c>
       <c r="O36" t="n">
-        <v>1780.228997365691</v>
+        <v>1661.075700019045</v>
       </c>
       <c r="P36" t="n">
-        <v>1849.317980235683</v>
+        <v>1730.164682889037</v>
       </c>
       <c r="Q36" t="n">
         <v>1887.390266210096</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>746.5630964868826</v>
+        <v>938.404073693217</v>
       </c>
       <c r="C37" t="n">
-        <v>574.5905333657986</v>
+        <v>766.431510572133</v>
       </c>
       <c r="D37" t="n">
-        <v>500.4857166752872</v>
+        <v>603.1147376989037</v>
       </c>
       <c r="E37" t="n">
-        <v>500.4857166752872</v>
+        <v>578.7785654639464</v>
       </c>
       <c r="F37" t="n">
-        <v>328.6239424498476</v>
+        <v>406.9167912385068</v>
       </c>
       <c r="G37" t="n">
-        <v>328.6239424498476</v>
+        <v>241.0658531799208</v>
       </c>
       <c r="H37" t="n">
-        <v>188.4376644211283</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I37" t="n">
         <v>100.8795751512015</v>
@@ -7119,28 +7119,28 @@
         <v>2675.80736508973</v>
       </c>
       <c r="R37" t="n">
-        <v>2647.025411112918</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S37" t="n">
-        <v>2483.966387883395</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="T37" t="n">
-        <v>2242.3619026018</v>
+        <v>2434.202879808134</v>
       </c>
       <c r="U37" t="n">
-        <v>1962.199601282859</v>
+        <v>2154.040578489194</v>
       </c>
       <c r="V37" t="n">
-        <v>1680.488133890888</v>
+        <v>1872.329111097222</v>
       </c>
       <c r="W37" t="n">
-        <v>1405.635730063401</v>
+        <v>1597.476707269735</v>
       </c>
       <c r="X37" t="n">
-        <v>1163.071833509206</v>
+        <v>1354.912810715541</v>
       </c>
       <c r="Y37" t="n">
-        <v>936.7290651989483</v>
+        <v>1128.570042405283</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2486.795531961021</v>
+        <v>2123.674885157237</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.894801974322</v>
+        <v>1696.774155170538</v>
       </c>
       <c r="D38" t="n">
-        <v>1636.602181159322</v>
+        <v>1273.481534355538</v>
       </c>
       <c r="E38" t="n">
         <v>1210.62524130718</v>
@@ -7174,28 +7174,28 @@
         <v>93.46894970622631</v>
       </c>
       <c r="J38" t="n">
-        <v>139.640198909726</v>
+        <v>531.3694176173522</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0839420190953</v>
+        <v>808.0568570433459</v>
       </c>
       <c r="L38" t="n">
-        <v>319.1562896923875</v>
+        <v>1877.683174344211</v>
       </c>
       <c r="M38" t="n">
-        <v>1135.485385136214</v>
+        <v>1996.404611951266</v>
       </c>
       <c r="N38" t="n">
-        <v>2270.035488677555</v>
+        <v>2117.796830399804</v>
       </c>
       <c r="O38" t="n">
-        <v>3264.65743824103</v>
+        <v>3112.418779963279</v>
       </c>
       <c r="P38" t="n">
-        <v>4100.51213416812</v>
+        <v>3948.273475890369</v>
       </c>
       <c r="Q38" t="n">
-        <v>4652.401438657349</v>
+        <v>4500.162780379598</v>
       </c>
       <c r="R38" t="n">
         <v>4673.447485311315</v>
@@ -7204,22 +7204,22 @@
         <v>4589.706932738392</v>
       </c>
       <c r="T38" t="n">
-        <v>4477.581929703318</v>
+        <v>4372.743778070568</v>
       </c>
       <c r="U38" t="n">
-        <v>4477.581929703318</v>
+        <v>4114.461282899533</v>
       </c>
       <c r="V38" t="n">
-        <v>4120.092514829567</v>
+        <v>3756.971868025783</v>
       </c>
       <c r="W38" t="n">
-        <v>3723.701165129914</v>
+        <v>3360.58051832613</v>
       </c>
       <c r="X38" t="n">
-        <v>3311.981166297661</v>
+        <v>2948.860519493877</v>
       </c>
       <c r="Y38" t="n">
-        <v>2906.643896252552</v>
+        <v>2543.523249448768</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3442.863228493074</v>
+        <v>655.4306850720064</v>
       </c>
       <c r="C39" t="n">
-        <v>3325.357325010578</v>
+        <v>537.9247815895112</v>
       </c>
       <c r="D39" t="n">
-        <v>3221.517366525864</v>
+        <v>434.0848231047963</v>
       </c>
       <c r="E39" t="n">
-        <v>3116.815432798801</v>
+        <v>329.3828893777335</v>
       </c>
       <c r="F39" t="n">
-        <v>3023.169602481705</v>
+        <v>235.7370590606376</v>
       </c>
       <c r="G39" t="n">
-        <v>2929.600143576582</v>
+        <v>142.1676001555149</v>
       </c>
       <c r="H39" t="n">
-        <v>2880.901493127294</v>
+        <v>93.46894970622631</v>
       </c>
       <c r="I39" t="n">
-        <v>2881.233808974932</v>
+        <v>93.8012655538646</v>
       </c>
       <c r="J39" t="n">
-        <v>2905.675188565303</v>
+        <v>410.3451376138262</v>
       </c>
       <c r="K39" t="n">
-        <v>2965.331505419485</v>
+        <v>1077.479675380574</v>
       </c>
       <c r="L39" t="n">
-        <v>3046.106430978193</v>
+        <v>1158.254600939282</v>
       </c>
       <c r="M39" t="n">
-        <v>3143.512450276095</v>
+        <v>1255.660620237184</v>
       </c>
       <c r="N39" t="n">
-        <v>3245.837921862966</v>
+        <v>1357.986091824054</v>
       </c>
       <c r="O39" t="n">
-        <v>3335.835020741636</v>
+        <v>1447.983190702725</v>
       </c>
       <c r="P39" t="n">
-        <v>4142.674853442906</v>
+        <v>1517.072173572716</v>
       </c>
       <c r="Q39" t="n">
-        <v>4667.412184186188</v>
+        <v>1879.979640765122</v>
       </c>
       <c r="R39" t="n">
-        <v>4673.447485311315</v>
+        <v>1886.014941890249</v>
       </c>
       <c r="S39" t="n">
-        <v>4601.119137149991</v>
+        <v>1813.686593728924</v>
       </c>
       <c r="T39" t="n">
-        <v>4461.191322211766</v>
+        <v>1673.7587787907</v>
       </c>
       <c r="U39" t="n">
-        <v>4276.454988820698</v>
+        <v>1489.02244539963</v>
       </c>
       <c r="V39" t="n">
-        <v>4071.481849959964</v>
+        <v>1284.049306538897</v>
       </c>
       <c r="W39" t="n">
-        <v>3874.960472793181</v>
+        <v>1087.527929372114</v>
       </c>
       <c r="X39" t="n">
-        <v>3711.483126559844</v>
+        <v>924.0505831387768</v>
       </c>
       <c r="Y39" t="n">
-        <v>3571.790237913136</v>
+        <v>784.3576944920692</v>
       </c>
     </row>
     <row r="40">
@@ -7314,13 +7314,13 @@
         <v>595.9618618976353</v>
       </c>
       <c r="D40" t="n">
-        <v>493.0750912303121</v>
+        <v>595.9618618976353</v>
       </c>
       <c r="E40" t="n">
-        <v>493.0750912303121</v>
+        <v>595.9618618976353</v>
       </c>
       <c r="F40" t="n">
-        <v>321.2133170048725</v>
+        <v>424.1000876721957</v>
       </c>
       <c r="G40" t="n">
         <v>321.2133170048725</v>
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2091.640073196406</v>
+        <v>2486.154835721805</v>
       </c>
       <c r="C41" t="n">
-        <v>1664.739343209706</v>
+        <v>2059.254105735105</v>
       </c>
       <c r="D41" t="n">
         <v>1635.961484920105</v>
@@ -7414,22 +7414,22 @@
         <v>530.7287213781354</v>
       </c>
       <c r="K41" t="n">
-        <v>608.1724644875048</v>
+        <v>1359.087727249865</v>
       </c>
       <c r="L41" t="n">
-        <v>710.244812160797</v>
+        <v>2428.714044550731</v>
       </c>
       <c r="M41" t="n">
-        <v>1103.450573175382</v>
+        <v>3490.619065544196</v>
       </c>
       <c r="N41" t="n">
-        <v>2238.000676716723</v>
+        <v>3612.011283992735</v>
       </c>
       <c r="O41" t="n">
-        <v>3232.622626280198</v>
+        <v>3724.471533642934</v>
       </c>
       <c r="P41" t="n">
-        <v>4068.477322207288</v>
+        <v>4560.326229570023</v>
       </c>
       <c r="Q41" t="n">
         <v>4620.366626696517</v>
@@ -7453,10 +7453,10 @@
         <v>3328.545706365298</v>
       </c>
       <c r="X41" t="n">
-        <v>2916.825707533046</v>
+        <v>3311.340470058445</v>
       </c>
       <c r="Y41" t="n">
-        <v>2511.488437487936</v>
+        <v>2906.003200013335</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>92.82825346700967</v>
       </c>
       <c r="I42" t="n">
-        <v>93.16056931464796</v>
+        <v>116.6178751590598</v>
       </c>
       <c r="J42" t="n">
-        <v>117.6019489050185</v>
+        <v>141.0592547494304</v>
       </c>
       <c r="K42" t="n">
-        <v>172.0763186084263</v>
+        <v>195.5336244528381</v>
       </c>
       <c r="L42" t="n">
-        <v>995.784041149189</v>
+        <v>276.3085500115465</v>
       </c>
       <c r="M42" t="n">
-        <v>1093.190060447091</v>
+        <v>373.7145693094486</v>
       </c>
       <c r="N42" t="n">
-        <v>1195.515532033961</v>
+        <v>476.0400408963188</v>
       </c>
       <c r="O42" t="n">
-        <v>1285.512630912631</v>
+        <v>566.0371397749891</v>
       </c>
       <c r="P42" t="n">
         <v>1354.601613782623</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>928.6777435147565</v>
+        <v>1008.898214061098</v>
       </c>
       <c r="C43" t="n">
-        <v>756.7051803936724</v>
+        <v>836.9256509400143</v>
       </c>
       <c r="D43" t="n">
-        <v>593.3884075204431</v>
+        <v>673.608878066785</v>
       </c>
       <c r="E43" t="n">
-        <v>430.5409657510353</v>
+        <v>658.2853330496814</v>
       </c>
       <c r="F43" t="n">
-        <v>258.6791915255957</v>
+        <v>486.4235588242419</v>
       </c>
       <c r="G43" t="n">
-        <v>92.82825346700967</v>
+        <v>320.5726207656559</v>
       </c>
       <c r="H43" t="n">
-        <v>92.82825346700967</v>
+        <v>180.3863427369365</v>
       </c>
       <c r="I43" t="n">
         <v>92.82825346700967</v>
@@ -7593,28 +7593,28 @@
         <v>2667.756043405538</v>
       </c>
       <c r="R43" t="n">
-        <v>2638.974089428726</v>
+        <v>2667.756043405538</v>
       </c>
       <c r="S43" t="n">
-        <v>2475.915066199203</v>
+        <v>2504.697020176015</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.310580917608</v>
+        <v>2504.697020176015</v>
       </c>
       <c r="U43" t="n">
-        <v>1954.148279598667</v>
+        <v>2224.534718857075</v>
       </c>
       <c r="V43" t="n">
-        <v>1672.436812206696</v>
+        <v>1942.823251465104</v>
       </c>
       <c r="W43" t="n">
-        <v>1397.584408379209</v>
+        <v>1667.970847637617</v>
       </c>
       <c r="X43" t="n">
-        <v>1155.020511825014</v>
+        <v>1425.406951083422</v>
       </c>
       <c r="Y43" t="n">
-        <v>928.6777435147565</v>
+        <v>1199.064182773164</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2175.380625769329</v>
+        <v>2197.556610435083</v>
       </c>
       <c r="C44" t="n">
-        <v>1748.479895782629</v>
+        <v>1770.655880448383</v>
       </c>
       <c r="D44" t="n">
-        <v>1325.187274967629</v>
+        <v>1347.363259633383</v>
       </c>
       <c r="E44" t="n">
-        <v>899.2103351154866</v>
+        <v>921.386319781241</v>
       </c>
       <c r="F44" t="n">
-        <v>474.0861533048868</v>
+        <v>496.2621379706412</v>
       </c>
       <c r="G44" t="n">
         <v>92.82825346700967</v>
@@ -7648,28 +7648,28 @@
         <v>92.82825346700967</v>
       </c>
       <c r="J44" t="n">
-        <v>138.9995026705093</v>
+        <v>530.7287213781354</v>
       </c>
       <c r="K44" t="n">
-        <v>967.358508542239</v>
+        <v>608.1724644875048</v>
       </c>
       <c r="L44" t="n">
-        <v>2036.984825843105</v>
+        <v>1677.79878178837</v>
       </c>
       <c r="M44" t="n">
-        <v>3185.734462497349</v>
+        <v>1796.520219395425</v>
       </c>
       <c r="N44" t="n">
-        <v>3307.126680945888</v>
+        <v>2085.762018438973</v>
       </c>
       <c r="O44" t="n">
-        <v>4301.748630509363</v>
+        <v>3080.383968002448</v>
       </c>
       <c r="P44" t="n">
-        <v>4392.124439086396</v>
+        <v>3916.238663929537</v>
       </c>
       <c r="Q44" t="n">
-        <v>4620.366626696517</v>
+        <v>4468.127968418767</v>
       </c>
       <c r="R44" t="n">
         <v>4641.412673350484</v>
@@ -7681,19 +7681,19 @@
         <v>4424.449518682659</v>
       </c>
       <c r="U44" t="n">
-        <v>4166.167023511624</v>
+        <v>4188.343008177379</v>
       </c>
       <c r="V44" t="n">
-        <v>3808.677608637874</v>
+        <v>3830.853593303629</v>
       </c>
       <c r="W44" t="n">
-        <v>3412.286258938221</v>
+        <v>3434.462243603976</v>
       </c>
       <c r="X44" t="n">
-        <v>3000.566260105968</v>
+        <v>3022.742244771723</v>
       </c>
       <c r="Y44" t="n">
-        <v>2595.228990060859</v>
+        <v>2617.404974726614</v>
       </c>
     </row>
     <row r="45">
@@ -7727,16 +7727,16 @@
         <v>93.16056931464796</v>
       </c>
       <c r="J45" t="n">
-        <v>117.6019489050185</v>
+        <v>295.8561732995984</v>
       </c>
       <c r="K45" t="n">
-        <v>172.0763186084263</v>
+        <v>350.3305430030062</v>
       </c>
       <c r="L45" t="n">
-        <v>252.8512441671347</v>
+        <v>431.1054685617146</v>
       </c>
       <c r="M45" t="n">
-        <v>1401.600880821379</v>
+        <v>1579.855105215959</v>
       </c>
       <c r="N45" t="n">
         <v>1682.180576802829</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>738.5117748026908</v>
+        <v>930.3527520090252</v>
       </c>
       <c r="C46" t="n">
-        <v>681.7730956827519</v>
+        <v>758.3801888879411</v>
       </c>
       <c r="D46" t="n">
-        <v>518.4563228095226</v>
+        <v>595.0634160147118</v>
       </c>
       <c r="E46" t="n">
-        <v>352.2481169623761</v>
+        <v>428.8552101675654</v>
       </c>
       <c r="F46" t="n">
-        <v>180.3863427369365</v>
+        <v>256.9934359421258</v>
       </c>
       <c r="G46" t="n">
         <v>180.3863427369365</v>
@@ -7830,28 +7830,28 @@
         <v>2667.756043405538</v>
       </c>
       <c r="R46" t="n">
-        <v>2638.974089428726</v>
+        <v>2667.756043405538</v>
       </c>
       <c r="S46" t="n">
-        <v>2475.915066199203</v>
+        <v>2667.756043405538</v>
       </c>
       <c r="T46" t="n">
-        <v>2234.310580917608</v>
+        <v>2426.151558123942</v>
       </c>
       <c r="U46" t="n">
-        <v>1954.148279598667</v>
+        <v>2145.989256805002</v>
       </c>
       <c r="V46" t="n">
-        <v>1672.436812206696</v>
+        <v>1864.277789413031</v>
       </c>
       <c r="W46" t="n">
-        <v>1397.584408379209</v>
+        <v>1589.425385585544</v>
       </c>
       <c r="X46" t="n">
-        <v>1155.020511825014</v>
+        <v>1346.861489031349</v>
       </c>
       <c r="Y46" t="n">
-        <v>928.6777435147565</v>
+        <v>1120.518720721091</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>453.322231905261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>84.86874406016992</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
@@ -8066,16 +8066,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>550.6255558370718</v>
+        <v>543.1036942593834</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8139,7 +8139,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8218,7 +8218,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8227,10 +8227,10 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O5" t="n">
-        <v>181.6704383876113</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
@@ -8291,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>184.1630016116738</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
@@ -8467,7 +8467,7 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>547.9365584046775</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>185.3350601123618</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>543.0285850494889</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8549,13 +8549,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L11" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O11" t="n">
-        <v>571.1449214366446</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870438</v>
       </c>
       <c r="M12" t="n">
-        <v>181.3705437721211</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,25 +8929,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>283.8955711856922</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>541.4615058285353</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>239.251143501334</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>567.826490133257</v>
+        <v>567.8264901332572</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9779814998487808</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>389.024540967605</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>518.2615151539362</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>231.780480092617</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>536.9486901204623</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>260.4124286077894</v>
+        <v>565.580638635635</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>325.1691902860053</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>558.4794156852624</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>565.9631736844865</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>11.05472524238849</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>565.5806386356348</v>
+        <v>565.580638635635</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>601.8447183059637</v>
       </c>
       <c r="L21" t="n">
-        <v>575.2785002703066</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>558.4794156852624</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>18.37749467659806</v>
       </c>
       <c r="Q21" t="n">
-        <v>108.2601060150593</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.0070276196214</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>786.8717676622442</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>325.1691902860052</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>328.1163446646376</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>292.0798768043226</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>145.5723595399638</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>455.3841459721847</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>120.356866006713</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>786.8717676622442</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>292.0798768043226</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>496.815143353175</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>320.3801948630809</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>854.3933722717932</v>
       </c>
       <c r="P32" t="n">
-        <v>532.5588003121915</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>1.632923838835509</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>131.588514059307</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>430.1433238378776</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.1380262611458</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>120.356866006713</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>120.3568660067131</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>201.2562589056812</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>704.6541998351234</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>5.234290051287104</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>328.1163446646378</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>277.2568923308394</v>
+        <v>952.710690289304</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>750.4371686687417</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>726.7429203410529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1040.432524290091</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>169.54503090405</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>169.9007984683106</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>180.0547721157373</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>1061.963249854892</v>
       </c>
       <c r="N45" t="n">
-        <v>180.0547721157374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>220.8579971279511</v>
+        <v>338.2962477485431</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -22615,7 +22615,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>42.95638068877172</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>114.189558399806</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22843,16 +22843,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.6064085940732</v>
+        <v>267.6904791623327</v>
       </c>
     </row>
     <row r="6">
@@ -22947,16 +22947,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23001,16 +23001,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>98.59602262526667</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>45.49062072144284</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -23035,13 +23035,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23083,7 +23083,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>256.8641036136048</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23181,10 +23181,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>142.7284989590957</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23269,16 +23269,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>144.4506161076737</v>
       </c>
       <c r="U11" t="n">
-        <v>68.04099693542724</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>119.1959337771378</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>71.98949189919171</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.119394177439062</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -23509,13 +23509,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>399.4708562660331</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.4425527922781</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.749202193249822</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>281.1321247803849</v>
       </c>
     </row>
     <row r="15">
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>169.4280555054478</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.64445924590609</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>29.93240801518301</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>174.1886234776317</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3624230775804</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>211.3800654689178</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>181.2441657578715</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.499846887841215</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.1884404287796</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>149.3758142217424</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>388.1678130903455</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>285.7122430338547</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,10 +24025,10 @@
         <v>214.7935231211468</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>316.7569991436451</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>137.3356224846194</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>85.58741072408969</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.49413443704394</v>
+        <v>28.49413443704393</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.1924286780001</v>
+        <v>1.41372588036532</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I25" t="n">
         <v>86.68250837722755</v>
@@ -24414,7 +24414,7 @@
         <v>28.49413443704394</v>
       </c>
       <c r="S25" t="n">
-        <v>137.6893175952944</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6893175952943</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.6977107818143</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3606783057509</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>30.04710813570375</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>140.1981411287974</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>29.77786648408227</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.1884404287796</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>177.8699486587873</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>88.31983662089074</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>140.4533132760673</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>359.4894403357463</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>103.7897701164228</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>59.82570218384696</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.1924286780001</v>
+        <v>62.33452571735008</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>390.5696149001449</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>390.569614900145</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>3.327156436961218</v>
+        <v>149.3758142217424</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.7844152484321</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>21.95422481909685</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>285.7122430338547</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>21.95422481909716</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>114.0815451611337</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.1924286780001</v>
+        <v>88.35140640486277</v>
       </c>
       <c r="H46" t="n">
         <v>138.7844152484321</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>466947.9022754075</v>
+        <v>466947.9022754074</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>466947.9022754073</v>
+        <v>466947.9022754074</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>466947.9022754075</v>
+        <v>466947.9022754074</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>466947.9022754074</v>
+        <v>466947.9022754076</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>504606.9682219605</v>
+        <v>504606.9682219604</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>507862.8367182866</v>
+        <v>507862.8367182864</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>765130.3367696449</v>
+        <v>765130.3367696448</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>765130.3367696448</v>
+        <v>765130.3367696449</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>765130.3367696449</v>
+        <v>765130.3367696448</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>725682.5411762726</v>
+        <v>725682.5411762727</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722272.0254958188</v>
+        <v>722272.0254958186</v>
       </c>
     </row>
     <row r="16">
@@ -26322,37 +26322,37 @@
         <v>186353.4106584144</v>
       </c>
       <c r="E2" t="n">
-        <v>186353.4106584144</v>
+        <v>186353.4106584143</v>
       </c>
       <c r="F2" t="n">
         <v>210140.032109481</v>
       </c>
       <c r="G2" t="n">
-        <v>212196.5385434555</v>
+        <v>212196.5385434557</v>
       </c>
       <c r="H2" t="n">
         <v>212196.5385434556</v>
       </c>
       <c r="I2" t="n">
+        <v>314838.2966701839</v>
+      </c>
+      <c r="J2" t="n">
+        <v>314838.2966701838</v>
+      </c>
+      <c r="K2" t="n">
+        <v>314838.2966701838</v>
+      </c>
+      <c r="L2" t="n">
         <v>314838.296670184</v>
       </c>
-      <c r="J2" t="n">
-        <v>314838.296670184</v>
-      </c>
-      <c r="K2" t="n">
-        <v>314838.296670184</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>314838.2966701839</v>
       </c>
-      <c r="M2" t="n">
-        <v>314838.2966701841</v>
-      </c>
       <c r="N2" t="n">
-        <v>299099.8489722852</v>
+        <v>299099.8489722848</v>
       </c>
       <c r="O2" t="n">
-        <v>297739.1589298556</v>
+        <v>297739.1589298555</v>
       </c>
       <c r="P2" t="n">
         <v>297739.1589298556</v>
@@ -26377,10 +26377,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>188719.572706216</v>
+        <v>188719.5727062161</v>
       </c>
       <c r="G3" t="n">
-        <v>15986.52908253333</v>
+        <v>15986.52908253316</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60817.09590731619</v>
+        <v>60817.09590731618</v>
       </c>
       <c r="C4" t="n">
         <v>60817.09590731617</v>
@@ -26426,7 +26426,7 @@
         <v>60817.09590731618</v>
       </c>
       <c r="E4" t="n">
-        <v>60817.09590731617</v>
+        <v>60817.09590731619</v>
       </c>
       <c r="F4" t="n">
         <v>46634.12316692532</v>
@@ -26444,16 +26444,16 @@
         <v>79015.37571946622</v>
       </c>
       <c r="K4" t="n">
-        <v>79015.3757194662</v>
+        <v>79015.37571946622</v>
       </c>
       <c r="L4" t="n">
         <v>79015.37571946622</v>
       </c>
       <c r="M4" t="n">
-        <v>79015.37571946623</v>
+        <v>79015.37571946622</v>
       </c>
       <c r="N4" t="n">
-        <v>73862.21691622875</v>
+        <v>73862.21691622876</v>
       </c>
       <c r="O4" t="n">
         <v>73416.69318954264</v>
@@ -26481,7 +26481,7 @@
         <v>33818.65103742812</v>
       </c>
       <c r="F5" t="n">
-        <v>43923.49473892766</v>
+        <v>43923.49473892767</v>
       </c>
       <c r="G5" t="n">
         <v>44797.1234772162</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128314.6697010672</v>
+        <v>-128923.7154135568</v>
       </c>
       <c r="C6" t="n">
-        <v>58090.06371367013</v>
+        <v>57481.01800118046</v>
       </c>
       <c r="D6" t="n">
-        <v>58090.06371367014</v>
+        <v>57481.01800118048</v>
       </c>
       <c r="E6" t="n">
-        <v>91717.6637136701</v>
+        <v>91108.61800118032</v>
       </c>
       <c r="F6" t="n">
-        <v>-69137.15850258796</v>
+        <v>-69638.08320848204</v>
       </c>
       <c r="G6" t="n">
-        <v>106004.9720434043</v>
+        <v>105513.3950940287</v>
       </c>
       <c r="H6" t="n">
-        <v>121991.5011259377</v>
+        <v>121499.9241765619</v>
       </c>
       <c r="I6" t="n">
-        <v>-6354.642709994223</v>
+        <v>-6379.666213339608</v>
       </c>
       <c r="J6" t="n">
-        <v>8761.305941185841</v>
+        <v>8736.282437840413</v>
       </c>
       <c r="K6" t="n">
-        <v>154294.9758760024</v>
+        <v>154269.9523726569</v>
       </c>
       <c r="L6" t="n">
-        <v>154294.9758760023</v>
+        <v>154269.9523726571</v>
       </c>
       <c r="M6" t="n">
-        <v>154294.9758760024</v>
+        <v>154269.952372657</v>
       </c>
       <c r="N6" t="n">
-        <v>149341.7623195222</v>
+        <v>149245.2004175497</v>
       </c>
       <c r="O6" t="n">
-        <v>148913.5251455834</v>
+        <v>148810.7782888729</v>
       </c>
       <c r="P6" t="n">
-        <v>148913.5251455834</v>
+        <v>148810.778288873</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>205.1728607026789</v>
+        <v>205.172860702679</v>
       </c>
       <c r="G3" t="n">
         <v>222.9113743028576</v>
@@ -26801,7 +26801,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="F4" t="n">
-        <v>648.8606311777839</v>
+        <v>648.8606311777841</v>
       </c>
       <c r="G4" t="n">
         <v>656.8693341679918</v>
@@ -26971,10 +26971,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>205.1728607026789</v>
+        <v>205.172860702679</v>
       </c>
       <c r="G3" t="n">
-        <v>17.73851360017878</v>
+        <v>17.73851360017861</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>92.63281806218981</v>
+        <v>92.63281806218993</v>
       </c>
       <c r="G4" t="n">
-        <v>8.008702990207894</v>
+        <v>8.00870299020778</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>92.63281806218981</v>
+        <v>92.63281806218993</v>
       </c>
       <c r="O4" t="n">
-        <v>8.008702990207894</v>
+        <v>8.00870299020778</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8248155204127787</v>
+        <v>0.8248155204127794</v>
       </c>
       <c r="H14" t="n">
-        <v>8.447141948427372</v>
+        <v>8.44714194842738</v>
       </c>
       <c r="I14" t="n">
-        <v>31.79870035071368</v>
+        <v>31.79870035071371</v>
       </c>
       <c r="J14" t="n">
-        <v>70.00518627563414</v>
+        <v>70.0051862756342</v>
       </c>
       <c r="K14" t="n">
-        <v>104.9196272547071</v>
+        <v>104.9196272547072</v>
       </c>
       <c r="L14" t="n">
-        <v>130.1620752375397</v>
+        <v>130.1620752375398</v>
       </c>
       <c r="M14" t="n">
-        <v>144.8303882486804</v>
+        <v>144.8303882486805</v>
       </c>
       <c r="N14" t="n">
-        <v>147.1738953460533</v>
+        <v>147.1738953460534</v>
       </c>
       <c r="O14" t="n">
-        <v>138.9721360149487</v>
+        <v>138.9721360149488</v>
       </c>
       <c r="P14" t="n">
-        <v>118.6095028547582</v>
+        <v>118.6095028547583</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.07079702997552</v>
+        <v>89.07079702997559</v>
       </c>
       <c r="R14" t="n">
-        <v>51.81181793412926</v>
+        <v>51.8118179341293</v>
       </c>
       <c r="S14" t="n">
-        <v>18.79548367140621</v>
+        <v>18.79548367140623</v>
       </c>
       <c r="T14" t="n">
-        <v>3.610629940606941</v>
+        <v>3.610629940606944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06598524163302229</v>
+        <v>0.06598524163302234</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4413152098133092</v>
+        <v>0.4413152098133096</v>
       </c>
       <c r="H15" t="n">
-        <v>4.262175842144329</v>
+        <v>4.262175842144333</v>
       </c>
       <c r="I15" t="n">
-        <v>15.19440525015122</v>
+        <v>15.19440525015123</v>
       </c>
       <c r="J15" t="n">
-        <v>41.69460936223025</v>
+        <v>41.69460936223028</v>
       </c>
       <c r="K15" t="n">
-        <v>71.26272841972197</v>
+        <v>71.26272841972202</v>
       </c>
       <c r="L15" t="n">
-        <v>95.82153272722753</v>
+        <v>95.82153272722761</v>
       </c>
       <c r="M15" t="n">
-        <v>111.81920908296</v>
+        <v>111.8192090829601</v>
       </c>
       <c r="N15" t="n">
-        <v>114.7787308189449</v>
+        <v>114.778730818945</v>
       </c>
       <c r="O15" t="n">
         <v>105.0001148541342</v>
       </c>
       <c r="P15" t="n">
-        <v>84.2718491440871</v>
+        <v>84.27184914408717</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.33349941406383</v>
+        <v>56.33349941406388</v>
       </c>
       <c r="R15" t="n">
-        <v>27.40025486893513</v>
+        <v>27.40025486893515</v>
       </c>
       <c r="S15" t="n">
-        <v>8.197236462979664</v>
+        <v>8.197236462979671</v>
       </c>
       <c r="T15" t="n">
-        <v>1.778809990431715</v>
+        <v>1.778809990431717</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02903389538245457</v>
+        <v>0.02903389538245459</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3699838471687651</v>
+        <v>0.3699838471687654</v>
       </c>
       <c r="H16" t="n">
-        <v>3.289492750282296</v>
+        <v>3.289492750282299</v>
       </c>
       <c r="I16" t="n">
         <v>11.12642333122069</v>
       </c>
       <c r="J16" t="n">
-        <v>26.15785799483169</v>
+        <v>26.15785799483172</v>
       </c>
       <c r="K16" t="n">
-        <v>42.98539606197107</v>
+        <v>42.9853960619711</v>
       </c>
       <c r="L16" t="n">
-        <v>55.00650760543623</v>
+        <v>55.00650760543628</v>
       </c>
       <c r="M16" t="n">
-        <v>57.99664978846378</v>
+        <v>57.99664978846383</v>
       </c>
       <c r="N16" t="n">
-        <v>56.61761908538025</v>
+        <v>56.6176190853803</v>
       </c>
       <c r="O16" t="n">
-        <v>52.29553505254511</v>
+        <v>52.29553505254515</v>
       </c>
       <c r="P16" t="n">
-        <v>44.74786457030226</v>
+        <v>44.7478645703023</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.98110196610451</v>
+        <v>30.98110196610453</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63581916451556</v>
+        <v>16.63581916451557</v>
       </c>
       <c r="S16" t="n">
-        <v>6.447809409295659</v>
+        <v>6.447809409295664</v>
       </c>
       <c r="T16" t="n">
-        <v>1.580840074266541</v>
+        <v>1.580840074266543</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0201809371182963</v>
+        <v>0.02018093711829632</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8961261278506832</v>
+        <v>0.8961261278506834</v>
       </c>
       <c r="H20" t="n">
         <v>9.177451706850812</v>
@@ -32505,7 +32505,7 @@
         <v>3.922792124666368</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07169009022805464</v>
+        <v>0.07169009022805466</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,7 +32545,7 @@
         <v>0.4794697485004862</v>
       </c>
       <c r="H21" t="n">
-        <v>4.630668360517855</v>
+        <v>4.630668360517856</v>
       </c>
       <c r="I21" t="n">
         <v>16.50805932337201</v>
@@ -32554,7 +32554,7 @@
         <v>45.29937654582884</v>
       </c>
       <c r="K21" t="n">
-        <v>77.42384969536141</v>
+        <v>77.42384969536143</v>
       </c>
       <c r="L21" t="n">
         <v>104.1059206119148</v>
@@ -32572,7 +32572,7 @@
         <v>91.55769258865865</v>
       </c>
       <c r="Q21" t="n">
-        <v>61.20389280858839</v>
+        <v>61.2038928085884</v>
       </c>
       <c r="R21" t="n">
         <v>29.76918315689862</v>
@@ -32639,16 +32639,16 @@
         <v>59.76217402211368</v>
       </c>
       <c r="M22" t="n">
-        <v>63.01083323121595</v>
+        <v>63.01083323121596</v>
       </c>
       <c r="N22" t="n">
-        <v>61.51257645311483</v>
+        <v>61.51257645311484</v>
       </c>
       <c r="O22" t="n">
         <v>56.81682045345625</v>
       </c>
       <c r="P22" t="n">
-        <v>48.61660530697076</v>
+        <v>48.61660530697077</v>
       </c>
       <c r="Q22" t="n">
         <v>33.6596175197315</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>415.0101894726381</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
@@ -34786,16 +34786,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>519.9318045371612</v>
+      </c>
+      <c r="P3" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>527.4536661148496</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34859,7 +34859,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34938,19 +34938,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>144.2794790315872</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
@@ -35011,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>162.8199733981322</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>510.5455990486534</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>519.9318045371609</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L9" t="n">
-        <v>162.8199733981322</v>
-      </c>
-      <c r="M9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O11" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M12" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>436.2713062927003</v>
+        <v>436.2713062927004</v>
       </c>
       <c r="K14" t="n">
-        <v>69.15502645989774</v>
+        <v>353.05059764559</v>
       </c>
       <c r="L14" t="n">
-        <v>91.85003280491676</v>
+        <v>91.85003280491688</v>
       </c>
       <c r="M14" t="n">
-        <v>648.8606311777839</v>
+        <v>107.3991253492487</v>
       </c>
       <c r="N14" t="n">
-        <v>349.1454160129412</v>
+        <v>109.8942725116073</v>
       </c>
       <c r="O14" t="n">
-        <v>101.5811766589246</v>
+        <v>101.5811766589247</v>
       </c>
       <c r="P14" t="n">
-        <v>648.8606311777839</v>
+        <v>648.8606311777841</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.94612242537748</v>
+        <v>549.7632005695544</v>
       </c>
       <c r="R14" t="n">
         <v>170.5555905421117</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>22.71626682783996</v>
       </c>
       <c r="J15" t="n">
         <v>316.1365177254536</v>
       </c>
       <c r="K15" t="n">
-        <v>48.86349458638863</v>
+        <v>437.8880355539937</v>
       </c>
       <c r="L15" t="n">
-        <v>73.30644601299798</v>
+        <v>73.30644601299805</v>
       </c>
       <c r="M15" t="n">
-        <v>88.72242857063198</v>
+        <v>88.72242857063208</v>
       </c>
       <c r="N15" t="n">
-        <v>93.43570260540318</v>
+        <v>93.43570260540329</v>
       </c>
       <c r="O15" t="n">
-        <v>600.0897402858482</v>
+        <v>81.82822513191202</v>
       </c>
       <c r="P15" t="n">
-        <v>62.50100793925844</v>
+        <v>62.50100793925851</v>
       </c>
       <c r="Q15" t="n">
-        <v>525.1673144269722</v>
+        <v>525.1673144269723</v>
       </c>
       <c r="R15" t="n">
-        <v>3.72733547479098</v>
+        <v>110.2480428332817</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>84.22990670610241</v>
+        <v>84.22990670610244</v>
       </c>
       <c r="K16" t="n">
-        <v>271.801154855746</v>
+        <v>271.8011548557461</v>
       </c>
       <c r="L16" t="n">
         <v>413.2785493169724</v>
       </c>
       <c r="M16" t="n">
-        <v>453.1338164250808</v>
+        <v>453.1338164250809</v>
       </c>
       <c r="N16" t="n">
-        <v>437.9221755258204</v>
+        <v>437.9221755258205</v>
       </c>
       <c r="O16" t="n">
         <v>411.3138468502856</v>
@@ -35886,13 +35886,13 @@
         <v>442.3237049607332</v>
       </c>
       <c r="K17" t="n">
-        <v>78.22600314077711</v>
+        <v>310.0064832333941</v>
       </c>
       <c r="L17" t="n">
         <v>103.1033814881739</v>
       </c>
       <c r="M17" t="n">
-        <v>656.8693341679918</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N17" t="n">
         <v>122.6184024732711</v>
@@ -35901,7 +35901,7 @@
         <v>113.5962117678778</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7011241401463</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="Q17" t="n">
         <v>557.4639439285145</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J18" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K18" t="n">
-        <v>55.02461586202807</v>
+        <v>380.1938061480334</v>
       </c>
       <c r="L18" t="n">
         <v>81.59083389768524</v>
       </c>
       <c r="M18" t="n">
-        <v>656.8693341679918</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N18" t="n">
         <v>103.3590622089598</v>
       </c>
       <c r="O18" t="n">
-        <v>656.8693341679918</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P18" t="n">
-        <v>80.84157662621848</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R18" t="n">
         <v>112.6169711212452</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J21" t="n">
         <v>24.68826221249551</v>
       </c>
       <c r="K21" t="n">
-        <v>55.02461586202807</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="L21" t="n">
-        <v>656.8693341679918</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M21" t="n">
-        <v>656.8693341679918</v>
+        <v>98.38991848272943</v>
       </c>
       <c r="N21" t="n">
         <v>103.3590622089598</v>
       </c>
       <c r="O21" t="n">
-        <v>90.90616048350532</v>
+        <v>90.9061604835053</v>
       </c>
       <c r="P21" t="n">
-        <v>69.78685138383</v>
+        <v>88.16434606042806</v>
       </c>
       <c r="Q21" t="n">
-        <v>146.7169605346691</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R21" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>405.6446530777019</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K23" t="n">
         <v>836.7262685573027</v>
       </c>
       <c r="L23" t="n">
-        <v>1080.430623536228</v>
+        <v>889.9751491504181</v>
       </c>
       <c r="M23" t="n">
         <v>119.9206440475296</v>
@@ -36381,7 +36381,7 @@
         <v>557.4639439285145</v>
       </c>
       <c r="R23" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J24" t="n">
         <v>319.7412849090522</v>
       </c>
       <c r="K24" t="n">
-        <v>673.8732704714621</v>
+        <v>55.02461586202807</v>
       </c>
       <c r="L24" t="n">
         <v>81.59083389768524</v>
@@ -36451,16 +36451,16 @@
         <v>103.3590622089598</v>
       </c>
       <c r="O24" t="n">
-        <v>90.90616048350532</v>
+        <v>416.0753507695105</v>
       </c>
       <c r="P24" t="n">
         <v>69.78685138383</v>
       </c>
       <c r="Q24" t="n">
-        <v>366.5731991842475</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R24" t="n">
-        <v>6.096263762754479</v>
+        <v>112.6169711212452</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K26" t="n">
-        <v>78.22600314077711</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L26" t="n">
         <v>1080.430623536228</v>
@@ -36606,19 +36606,19 @@
         <v>1171.782312420758</v>
       </c>
       <c r="N26" t="n">
-        <v>1146.010205597314</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O26" t="n">
-        <v>1004.668635922702</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P26" t="n">
-        <v>383.3685723366794</v>
+        <v>844.2976726536263</v>
       </c>
       <c r="Q26" t="n">
-        <v>60.64686578433751</v>
+        <v>206.2192253243013</v>
       </c>
       <c r="R26" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0.3356725733720047</v>
       </c>
       <c r="J27" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K27" t="n">
-        <v>55.02461586202807</v>
+        <v>510.4087618342127</v>
       </c>
       <c r="L27" t="n">
         <v>81.59083389768524</v>
@@ -36685,16 +36685,16 @@
         <v>98.38991848272941</v>
       </c>
       <c r="N27" t="n">
-        <v>1225.020218172875</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O27" t="n">
-        <v>211.2630264902184</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P27" t="n">
         <v>69.78685138383</v>
       </c>
       <c r="Q27" t="n">
-        <v>38.45685451960989</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R27" t="n">
         <v>6.096263762754479</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K29" t="n">
-        <v>78.22600314077711</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L29" t="n">
-        <v>1080.430623536228</v>
+        <v>889.9751491504181</v>
       </c>
       <c r="M29" t="n">
-        <v>1171.782312420758</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N29" t="n">
-        <v>1146.010205597314</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O29" t="n">
         <v>1004.668635922702</v>
       </c>
       <c r="P29" t="n">
-        <v>91.28869553235688</v>
+        <v>844.2976726536263</v>
       </c>
       <c r="Q29" t="n">
-        <v>352.7267425886601</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R29" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>24.68826221249551</v>
       </c>
       <c r="K30" t="n">
-        <v>551.8397592152031</v>
+        <v>55.02461586202807</v>
       </c>
       <c r="L30" t="n">
         <v>81.59083389768524</v>
@@ -36925,13 +36925,13 @@
         <v>103.3590622089598</v>
       </c>
       <c r="O30" t="n">
-        <v>90.90616048350532</v>
+        <v>1012.543987591052</v>
       </c>
       <c r="P30" t="n">
-        <v>814.9897300012829</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q30" t="n">
-        <v>38.45685451960989</v>
+        <v>358.8370493826908</v>
       </c>
       <c r="R30" t="n">
         <v>6.096263762754479</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K32" t="n">
-        <v>78.22600314077711</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L32" t="n">
         <v>1080.430623536228</v>
       </c>
       <c r="M32" t="n">
-        <v>1171.782312420758</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N32" t="n">
-        <v>1146.010205597314</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O32" t="n">
-        <v>113.5962117678778</v>
+        <v>967.9895840396709</v>
       </c>
       <c r="P32" t="n">
-        <v>623.8474958445483</v>
+        <v>844.2976726536263</v>
       </c>
       <c r="Q32" t="n">
         <v>557.4639439285145</v>
       </c>
       <c r="R32" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J33" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K33" t="n">
-        <v>673.8732704714621</v>
+        <v>56.65753970086358</v>
       </c>
       <c r="L33" t="n">
         <v>81.59083389768524</v>
@@ -37162,13 +37162,13 @@
         <v>103.3590622089598</v>
       </c>
       <c r="O33" t="n">
-        <v>90.90616048350532</v>
+        <v>1012.543987591052</v>
       </c>
       <c r="P33" t="n">
-        <v>201.375365443137</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q33" t="n">
-        <v>530.0377078214968</v>
+        <v>38.45685451960989</v>
       </c>
       <c r="R33" t="n">
         <v>6.096263762754479</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K35" t="n">
-        <v>78.22600314077711</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L35" t="n">
         <v>1080.430623536228</v>
       </c>
       <c r="M35" t="n">
-        <v>1171.782312420758</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N35" t="n">
-        <v>1146.010205597314</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O35" t="n">
-        <v>543.7395356057555</v>
+        <v>1004.668635922702</v>
       </c>
       <c r="P35" t="n">
         <v>844.2976726536263</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.64686578433751</v>
+        <v>520.7848920454833</v>
       </c>
       <c r="R35" t="n">
         <v>21.25863298380406</v>
@@ -37393,7 +37393,7 @@
         <v>81.59083389768524</v>
       </c>
       <c r="M36" t="n">
-        <v>218.7467844894424</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N36" t="n">
         <v>1225.020218172875</v>
@@ -37405,7 +37405,7 @@
         <v>69.78685138383</v>
       </c>
       <c r="Q36" t="n">
-        <v>38.45685451960989</v>
+        <v>158.813720526323</v>
       </c>
       <c r="R36" t="n">
         <v>6.096263762754479</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K38" t="n">
-        <v>78.22600314077711</v>
+        <v>279.4822620464583</v>
       </c>
       <c r="L38" t="n">
-        <v>103.1033814881739</v>
+        <v>1080.430623536228</v>
       </c>
       <c r="M38" t="n">
-        <v>824.574843882653</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N38" t="n">
-        <v>1146.010205597314</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O38" t="n">
         <v>1004.668635922702</v>
@@ -37566,7 +37566,7 @@
         <v>557.4639439285145</v>
       </c>
       <c r="R38" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0.3356725733720047</v>
       </c>
       <c r="J39" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K39" t="n">
-        <v>60.25890591331517</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L39" t="n">
         <v>81.59083389768524</v>
@@ -37639,10 +37639,10 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P39" t="n">
-        <v>814.9897300012829</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q39" t="n">
-        <v>530.0377078214968</v>
+        <v>366.5731991842477</v>
       </c>
       <c r="R39" t="n">
         <v>6.096263762754479</v>
@@ -37782,25 +37782,25 @@
         <v>442.3237049607332</v>
       </c>
       <c r="K41" t="n">
-        <v>78.22600314077711</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L41" t="n">
-        <v>103.1033814881739</v>
+        <v>1080.430623536228</v>
       </c>
       <c r="M41" t="n">
-        <v>397.177536378369</v>
+        <v>1072.631334336834</v>
       </c>
       <c r="N41" t="n">
-        <v>1146.010205597314</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O41" t="n">
-        <v>1004.668635922702</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P41" t="n">
         <v>844.2976726536263</v>
       </c>
       <c r="Q41" t="n">
-        <v>557.4639439285145</v>
+        <v>60.64686578433751</v>
       </c>
       <c r="R41" t="n">
         <v>21.25863298380406</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3356725733720047</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J42" t="n">
         <v>24.68826221249551</v>
@@ -37864,7 +37864,7 @@
         <v>55.02461586202807</v>
       </c>
       <c r="L42" t="n">
-        <v>832.0280025664269</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M42" t="n">
         <v>98.38991848272941</v>
@@ -37876,7 +37876,7 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P42" t="n">
-        <v>69.78685138383</v>
+        <v>796.5297717248829</v>
       </c>
       <c r="Q42" t="n">
         <v>530.0377078214968</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K44" t="n">
-        <v>836.7262685573027</v>
+        <v>78.22600314077711</v>
       </c>
       <c r="L44" t="n">
         <v>1080.430623536228</v>
       </c>
       <c r="M44" t="n">
-        <v>1160.353168337621</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N44" t="n">
-        <v>122.6184024732711</v>
+        <v>292.1634333773211</v>
       </c>
       <c r="O44" t="n">
         <v>1004.668635922702</v>
       </c>
       <c r="P44" t="n">
-        <v>91.28869553235688</v>
+        <v>844.2976726536263</v>
       </c>
       <c r="Q44" t="n">
-        <v>230.5476642526481</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R44" t="n">
-        <v>21.25863298380406</v>
+        <v>175.035055486583</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0.3356725733720047</v>
       </c>
       <c r="J45" t="n">
-        <v>24.68826221249551</v>
+        <v>204.7430343282328</v>
       </c>
       <c r="K45" t="n">
         <v>55.02461586202807</v>
@@ -38107,7 +38107,7 @@
         <v>1160.353168337621</v>
       </c>
       <c r="N45" t="n">
-        <v>283.4138343246972</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O45" t="n">
         <v>90.90616048350532</v>
